--- a/data/df_kr_2023.xlsx
+++ b/data/df_kr_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q230"/>
+  <dimension ref="A1:N230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,21 +428,6 @@
           <t>TFR</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>deaths</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>CDR</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>SMR</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -497,15 +482,6 @@
       <c r="N2">
         <v>0.406</v>
       </c>
-      <c r="O2">
-        <v>944</v>
-      </c>
-      <c r="P2">
-        <v>6.815835264727331</v>
-      </c>
-      <c r="Q2">
-        <v>5.844750562403512</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -560,15 +536,6 @@
       <c r="N3">
         <v>0.534</v>
       </c>
-      <c r="O3">
-        <v>826</v>
-      </c>
-      <c r="P3">
-        <v>6.929123289739697</v>
-      </c>
-      <c r="Q3">
-        <v>5.798857628251596</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -623,15 +590,6 @@
       <c r="N4">
         <v>0.547</v>
       </c>
-      <c r="O4">
-        <v>1243</v>
-      </c>
-      <c r="P4">
-        <v>5.851146457537999</v>
-      </c>
-      <c r="Q4">
-        <v>5.555569501413158</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -686,15 +644,6 @@
       <c r="N5">
         <v>0.639</v>
       </c>
-      <c r="O5">
-        <v>1477</v>
-      </c>
-      <c r="P5">
-        <v>5.332890430223804</v>
-      </c>
-      <c r="Q5">
-        <v>5.423687717073306</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -749,15 +698,6 @@
       <c r="N6">
         <v>0.449</v>
       </c>
-      <c r="O6">
-        <v>1632</v>
-      </c>
-      <c r="P6">
-        <v>4.886359213272214</v>
-      </c>
-      <c r="Q6">
-        <v>5.379729409948909</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -812,15 +752,6 @@
       <c r="N7">
         <v>0.5659999999999999</v>
       </c>
-      <c r="O7">
-        <v>2303</v>
-      </c>
-      <c r="P7">
-        <v>6.845151846154989</v>
-      </c>
-      <c r="Q7">
-        <v>6.453937275363768</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -875,15 +806,6 @@
       <c r="N8">
         <v>0.623</v>
       </c>
-      <c r="O8">
-        <v>2488</v>
-      </c>
-      <c r="P8">
-        <v>6.520061374532713</v>
-      </c>
-      <c r="Q8">
-        <v>6.130878684364133</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -938,15 +860,6 @@
       <c r="N9">
         <v>0.588</v>
       </c>
-      <c r="O9">
-        <v>2520</v>
-      </c>
-      <c r="P9">
-        <v>5.928009964702465</v>
-      </c>
-      <c r="Q9">
-        <v>5.654538614636725</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -1001,15 +914,6 @@
       <c r="N10">
         <v>0.478</v>
       </c>
-      <c r="O10">
-        <v>2262</v>
-      </c>
-      <c r="P10">
-        <v>7.836303703536903</v>
-      </c>
-      <c r="Q10">
-        <v>6.395542323195135</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -1064,15 +968,6 @@
       <c r="N11">
         <v>0.518</v>
       </c>
-      <c r="O11">
-        <v>2099</v>
-      </c>
-      <c r="P11">
-        <v>6.827992492135936</v>
-      </c>
-      <c r="Q11">
-        <v>5.637773430616885</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1127,15 +1022,6 @@
       <c r="N12">
         <v>0.673</v>
       </c>
-      <c r="O12">
-        <v>3102</v>
-      </c>
-      <c r="P12">
-        <v>6.220964570383436</v>
-      </c>
-      <c r="Q12">
-        <v>6.069953643190979</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1190,15 +1076,6 @@
       <c r="N13">
         <v>0.515</v>
       </c>
-      <c r="O13">
-        <v>2879</v>
-      </c>
-      <c r="P13">
-        <v>6.209773437095578</v>
-      </c>
-      <c r="Q13">
-        <v>5.755040121165566</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1253,15 +1130,6 @@
       <c r="N14">
         <v>0.57</v>
       </c>
-      <c r="O14">
-        <v>1844</v>
-      </c>
-      <c r="P14">
-        <v>6.072301217753249</v>
-      </c>
-      <c r="Q14">
-        <v>5.704192999722197</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1316,15 +1184,6 @@
       <c r="N15">
         <v>0.476</v>
       </c>
-      <c r="O15">
-        <v>1749</v>
-      </c>
-      <c r="P15">
-        <v>4.845600172879045</v>
-      </c>
-      <c r="Q15">
-        <v>5.247055834746586</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1379,15 +1238,6 @@
       <c r="N16">
         <v>0.533</v>
       </c>
-      <c r="O16">
-        <v>2086</v>
-      </c>
-      <c r="P16">
-        <v>4.785764758784609</v>
-      </c>
-      <c r="Q16">
-        <v>5.465773332358736</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1442,15 +1292,6 @@
       <c r="N17">
         <v>0.545</v>
       </c>
-      <c r="O17">
-        <v>2995</v>
-      </c>
-      <c r="P17">
-        <v>5.320074889601785</v>
-      </c>
-      <c r="Q17">
-        <v>5.837165117107321</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1505,15 +1346,6 @@
       <c r="N18">
         <v>0.643</v>
       </c>
-      <c r="O18">
-        <v>2228</v>
-      </c>
-      <c r="P18">
-        <v>5.686531241465737</v>
-      </c>
-      <c r="Q18">
-        <v>5.621643766577153</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1568,15 +1400,6 @@
       <c r="N19">
         <v>0.5590000000000001</v>
       </c>
-      <c r="O19">
-        <v>1392</v>
-      </c>
-      <c r="P19">
-        <v>6.12997124374122</v>
-      </c>
-      <c r="Q19">
-        <v>6.5167146440981</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1631,15 +1454,6 @@
       <c r="N20">
         <v>0.635</v>
       </c>
-      <c r="O20">
-        <v>1994</v>
-      </c>
-      <c r="P20">
-        <v>5.356694323220356</v>
-      </c>
-      <c r="Q20">
-        <v>5.609358189777714</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1694,15 +1508,6 @@
       <c r="N21">
         <v>0.574</v>
       </c>
-      <c r="O21">
-        <v>1993</v>
-      </c>
-      <c r="P21">
-        <v>5.285904299405502</v>
-      </c>
-      <c r="Q21">
-        <v>5.240667905645468</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1757,15 +1562,6 @@
       <c r="N22">
         <v>0.394</v>
       </c>
-      <c r="O22">
-        <v>2607</v>
-      </c>
-      <c r="P22">
-        <v>5.42082056709643</v>
-      </c>
-      <c r="Q22">
-        <v>5.945091748858112</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1820,15 +1616,6 @@
       <c r="N23">
         <v>0.553</v>
       </c>
-      <c r="O23">
-        <v>1534</v>
-      </c>
-      <c r="P23">
-        <v>3.819602228516294</v>
-      </c>
-      <c r="Q23">
-        <v>4.477207863518325</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1883,15 +1670,6 @@
       <c r="N24">
         <v>0.5580000000000001</v>
       </c>
-      <c r="O24">
-        <v>2091</v>
-      </c>
-      <c r="P24">
-        <v>3.947431762383864</v>
-      </c>
-      <c r="Q24">
-        <v>4.646378620189861</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1946,15 +1724,6 @@
       <c r="N25">
         <v>0.543</v>
       </c>
-      <c r="O25">
-        <v>2791</v>
-      </c>
-      <c r="P25">
-        <v>4.281223132103575</v>
-      </c>
-      <c r="Q25">
-        <v>5.211561643166029</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -2009,15 +1778,6 @@
       <c r="N26">
         <v>0.629</v>
       </c>
-      <c r="O26">
-        <v>2367</v>
-      </c>
-      <c r="P26">
-        <v>5.184155800636685</v>
-      </c>
-      <c r="Q26">
-        <v>5.889448276664372</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -2072,15 +1832,6 @@
       <c r="N27">
         <v>0.32</v>
       </c>
-      <c r="O27">
-        <v>459</v>
-      </c>
-      <c r="P27">
-        <v>11.8137595552467</v>
-      </c>
-      <c r="Q27">
-        <v>7.937019594342924</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -2135,15 +1886,6 @@
       <c r="N28">
         <v>0.5659999999999999</v>
       </c>
-      <c r="O28">
-        <v>1200</v>
-      </c>
-      <c r="P28">
-        <v>11.52449916447381</v>
-      </c>
-      <c r="Q28">
-        <v>8.38483218354548</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -2198,15 +1940,6 @@
       <c r="N29">
         <v>0.715</v>
       </c>
-      <c r="O29">
-        <v>983</v>
-      </c>
-      <c r="P29">
-        <v>11.3544482177097</v>
-      </c>
-      <c r="Q29">
-        <v>7.941152800915976</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -2261,15 +1994,6 @@
       <c r="N30">
         <v>0.6919999999999999</v>
       </c>
-      <c r="O30">
-        <v>1367</v>
-      </c>
-      <c r="P30">
-        <v>12.79824737972971</v>
-      </c>
-      <c r="Q30">
-        <v>8.434092057015848</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -2324,15 +2048,6 @@
       <c r="N31">
         <v>0.648</v>
       </c>
-      <c r="O31">
-        <v>2870</v>
-      </c>
-      <c r="P31">
-        <v>8.065615326355312</v>
-      </c>
-      <c r="Q31">
-        <v>7.115880530045384</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2387,15 +2102,6 @@
       <c r="N32">
         <v>0.672</v>
       </c>
-      <c r="O32">
-        <v>1882</v>
-      </c>
-      <c r="P32">
-        <v>6.943560511727865</v>
-      </c>
-      <c r="Q32">
-        <v>6.566603053623993</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2450,15 +2156,6 @@
       <c r="N33">
         <v>0.596</v>
       </c>
-      <c r="O33">
-        <v>1991</v>
-      </c>
-      <c r="P33">
-        <v>7.835359074711389</v>
-      </c>
-      <c r="Q33">
-        <v>6.656568118300897</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2513,15 +2210,6 @@
       <c r="N34">
         <v>0.732</v>
       </c>
-      <c r="O34">
-        <v>2005</v>
-      </c>
-      <c r="P34">
-        <v>7.280742526798942</v>
-      </c>
-      <c r="Q34">
-        <v>6.876538252173545</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2576,15 +2264,6 @@
       <c r="N35">
         <v>0.652</v>
       </c>
-      <c r="O35">
-        <v>2752</v>
-      </c>
-      <c r="P35">
-        <v>7.21370604147881</v>
-      </c>
-      <c r="Q35">
-        <v>6.666028566042298</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2639,15 +2318,6 @@
       <c r="N36">
         <v>0.676</v>
       </c>
-      <c r="O36">
-        <v>2434</v>
-      </c>
-      <c r="P36">
-        <v>8.144690391339992</v>
-      </c>
-      <c r="Q36">
-        <v>7.376160720301944</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2702,15 +2372,6 @@
       <c r="N37">
         <v>0.58</v>
       </c>
-      <c r="O37">
-        <v>1920</v>
-      </c>
-      <c r="P37">
-        <v>8.824299915893391</v>
-      </c>
-      <c r="Q37">
-        <v>6.938252889154747</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2765,15 +2426,6 @@
       <c r="N38">
         <v>0.987</v>
       </c>
-      <c r="O38">
-        <v>651</v>
-      </c>
-      <c r="P38">
-        <v>4.569575471698113</v>
-      </c>
-      <c r="Q38">
-        <v>6.549911169196809</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2828,15 +2480,6 @@
       <c r="N39">
         <v>0.646</v>
       </c>
-      <c r="O39">
-        <v>1508</v>
-      </c>
-      <c r="P39">
-        <v>7.396199393295846</v>
-      </c>
-      <c r="Q39">
-        <v>6.543126487322748</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2891,15 +2534,6 @@
       <c r="N40">
         <v>0.5610000000000001</v>
       </c>
-      <c r="O40">
-        <v>1347</v>
-      </c>
-      <c r="P40">
-        <v>7.760960123530055</v>
-      </c>
-      <c r="Q40">
-        <v>6.225001959356084</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2954,15 +2588,6 @@
       <c r="N41">
         <v>0.6</v>
       </c>
-      <c r="O41">
-        <v>1666</v>
-      </c>
-      <c r="P41">
-        <v>8.225921527868643</v>
-      </c>
-      <c r="Q41">
-        <v>7.681596783354093</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -3017,15 +2642,6 @@
       <c r="N42">
         <v>0.845</v>
       </c>
-      <c r="O42">
-        <v>1268</v>
-      </c>
-      <c r="P42">
-        <v>7.114282989120982</v>
-      </c>
-      <c r="Q42">
-        <v>7.364022732757705</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -3080,15 +2696,6 @@
       <c r="N43">
         <v>0.824</v>
       </c>
-      <c r="O43">
-        <v>620</v>
-      </c>
-      <c r="P43">
-        <v>7.37836117077931</v>
-      </c>
-      <c r="Q43">
-        <v>6.748395758655811</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -3143,15 +2750,6 @@
       <c r="N44">
         <v>0.727</v>
       </c>
-      <c r="O44">
-        <v>2697</v>
-      </c>
-      <c r="P44">
-        <v>7.936683102104237</v>
-      </c>
-      <c r="Q44">
-        <v>6.653838605811969</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -3206,15 +2804,6 @@
       <c r="N45">
         <v>0.474</v>
       </c>
-      <c r="O45">
-        <v>1617</v>
-      </c>
-      <c r="P45">
-        <v>10.04057834228002</v>
-      </c>
-      <c r="Q45">
-        <v>7.646274629095523</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -3269,15 +2858,6 @@
       <c r="N46">
         <v>0.5629999999999999</v>
       </c>
-      <c r="O46">
-        <v>1327</v>
-      </c>
-      <c r="P46">
-        <v>9.516637980493401</v>
-      </c>
-      <c r="Q46">
-        <v>6.76371383411113</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -3332,15 +2912,6 @@
       <c r="N47">
         <v>0.698</v>
       </c>
-      <c r="O47">
-        <v>2598</v>
-      </c>
-      <c r="P47">
-        <v>6.126780492406377</v>
-      </c>
-      <c r="Q47">
-        <v>6.539103716106426</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -3395,15 +2966,6 @@
       <c r="N48">
         <v>0.569</v>
       </c>
-      <c r="O48">
-        <v>2511</v>
-      </c>
-      <c r="P48">
-        <v>6.153001701815882</v>
-      </c>
-      <c r="Q48">
-        <v>5.945545254701774</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -3458,15 +3020,6 @@
       <c r="N49">
         <v>0.6840000000000001</v>
       </c>
-      <c r="O49">
-        <v>3203</v>
-      </c>
-      <c r="P49">
-        <v>6.034179870556198</v>
-      </c>
-      <c r="Q49">
-        <v>6.555231138919886</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -3521,15 +3074,6 @@
       <c r="N50">
         <v>1.025</v>
       </c>
-      <c r="O50">
-        <v>1532</v>
-      </c>
-      <c r="P50">
-        <v>5.843336041406825</v>
-      </c>
-      <c r="Q50">
-        <v>7.068914280385551</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -3584,15 +3128,6 @@
       <c r="N51">
         <v>1.082</v>
       </c>
-      <c r="O51">
-        <v>451</v>
-      </c>
-      <c r="P51">
-        <v>19.51578355221879</v>
-      </c>
-      <c r="Q51">
-        <v>7.506373424884265</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3647,15 +3182,6 @@
       <c r="N52">
         <v>0.764</v>
       </c>
-      <c r="O52">
-        <v>905</v>
-      </c>
-      <c r="P52">
-        <v>5.842893943404632</v>
-      </c>
-      <c r="Q52">
-        <v>6.912169333820007</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3710,15 +3236,6 @@
       <c r="N53">
         <v>0.775</v>
       </c>
-      <c r="O53">
-        <v>551</v>
-      </c>
-      <c r="P53">
-        <v>9.345477365626961</v>
-      </c>
-      <c r="Q53">
-        <v>7.123307896327416</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3773,15 +3290,6 @@
       <c r="N54">
         <v>0.734</v>
       </c>
-      <c r="O54">
-        <v>1622</v>
-      </c>
-      <c r="P54">
-        <v>4.187508471185063</v>
-      </c>
-      <c r="Q54">
-        <v>6.107536231483103</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3836,15 +3344,6 @@
       <c r="N55">
         <v>0.592</v>
       </c>
-      <c r="O55">
-        <v>3149</v>
-      </c>
-      <c r="P55">
-        <v>6.341406930438854</v>
-      </c>
-      <c r="Q55">
-        <v>7.068897653329272</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3899,15 +3398,6 @@
       <c r="N56">
         <v>0.637</v>
       </c>
-      <c r="O56">
-        <v>3208</v>
-      </c>
-      <c r="P56">
-        <v>6.56146773979117</v>
-      </c>
-      <c r="Q56">
-        <v>6.976022774061127</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3962,15 +3452,6 @@
       <c r="N57">
         <v>0.55</v>
       </c>
-      <c r="O57">
-        <v>1698</v>
-      </c>
-      <c r="P57">
-        <v>5.997499275920288</v>
-      </c>
-      <c r="Q57">
-        <v>6.662272250155337</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -4025,15 +3506,6 @@
       <c r="N58">
         <v>0.82</v>
       </c>
-      <c r="O58">
-        <v>2858</v>
-      </c>
-      <c r="P58">
-        <v>4.729752093469698</v>
-      </c>
-      <c r="Q58">
-        <v>6.98363339190077</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -4088,15 +3560,6 @@
       <c r="N59">
         <v>0.659</v>
       </c>
-      <c r="O59">
-        <v>3038</v>
-      </c>
-      <c r="P59">
-        <v>7.531145301772596</v>
-      </c>
-      <c r="Q59">
-        <v>7.359866009483129</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -4151,15 +3614,6 @@
       <c r="N60">
         <v>1.043</v>
       </c>
-      <c r="O60">
-        <v>972</v>
-      </c>
-      <c r="P60">
-        <v>14.06331384918109</v>
-      </c>
-      <c r="Q60">
-        <v>6.742712400769998</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -4214,15 +3668,6 @@
       <c r="N61">
         <v>0.884</v>
       </c>
-      <c r="O61">
-        <v>241</v>
-      </c>
-      <c r="P61">
-        <v>11.80764802430122</v>
-      </c>
-      <c r="Q61">
-        <v>8.796600401954139</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -4277,15 +3722,6 @@
       <c r="N62">
         <v>0.775</v>
       </c>
-      <c r="O62">
-        <v>924</v>
-      </c>
-      <c r="P62">
-        <v>8.737506028311788</v>
-      </c>
-      <c r="Q62">
-        <v>7.028722993772842</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -4340,15 +3776,6 @@
       <c r="N63">
         <v>0.588</v>
       </c>
-      <c r="O63">
-        <v>1724</v>
-      </c>
-      <c r="P63">
-        <v>6.056773468240585</v>
-      </c>
-      <c r="Q63">
-        <v>6.423687265111233</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -4403,15 +3830,6 @@
       <c r="N64">
         <v>0.694</v>
       </c>
-      <c r="O64">
-        <v>1456</v>
-      </c>
-      <c r="P64">
-        <v>6.916601744351759</v>
-      </c>
-      <c r="Q64">
-        <v>6.419749576019162</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -4466,15 +3884,6 @@
       <c r="N65">
         <v>0.708</v>
       </c>
-      <c r="O65">
-        <v>2792</v>
-      </c>
-      <c r="P65">
-        <v>6.618278015085502</v>
-      </c>
-      <c r="Q65">
-        <v>6.862796856059846</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -4529,15 +3938,6 @@
       <c r="N66">
         <v>0.774</v>
       </c>
-      <c r="O66">
-        <v>1970</v>
-      </c>
-      <c r="P66">
-        <v>4.952224856146667</v>
-      </c>
-      <c r="Q66">
-        <v>7.32350709198313</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -4592,15 +3992,6 @@
       <c r="N67">
         <v>0.825</v>
       </c>
-      <c r="O67">
-        <v>1819</v>
-      </c>
-      <c r="P67">
-        <v>8.351986409082039</v>
-      </c>
-      <c r="Q67">
-        <v>7.148874108267694</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -4655,15 +4046,6 @@
       <c r="N68">
         <v>0.645</v>
       </c>
-      <c r="O68">
-        <v>1866</v>
-      </c>
-      <c r="P68">
-        <v>8.322332036964356</v>
-      </c>
-      <c r="Q68">
-        <v>6.877831811101046</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -4718,15 +4100,6 @@
       <c r="N69">
         <v>0.723</v>
       </c>
-      <c r="O69">
-        <v>2357</v>
-      </c>
-      <c r="P69">
-        <v>5.06041039348609</v>
-      </c>
-      <c r="Q69">
-        <v>6.165853241867388</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -4781,15 +4154,6 @@
       <c r="N70">
         <v>0.895</v>
       </c>
-      <c r="O70">
-        <v>1411</v>
-      </c>
-      <c r="P70">
-        <v>3.914355781927938</v>
-      </c>
-      <c r="Q70">
-        <v>5.996636358923463</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -4844,15 +4208,6 @@
       <c r="N71">
         <v>0.833</v>
       </c>
-      <c r="O71">
-        <v>1224</v>
-      </c>
-      <c r="P71">
-        <v>7.174803777323165</v>
-      </c>
-      <c r="Q71">
-        <v>7.127776088230521</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4907,15 +4262,6 @@
       <c r="N72">
         <v>0.655</v>
       </c>
-      <c r="O72">
-        <v>1310</v>
-      </c>
-      <c r="P72">
-        <v>6.305686188621847</v>
-      </c>
-      <c r="Q72">
-        <v>6.720627422026497</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4970,15 +4316,6 @@
       <c r="N73">
         <v>0.731</v>
       </c>
-      <c r="O73">
-        <v>1569</v>
-      </c>
-      <c r="P73">
-        <v>5.100274517643732</v>
-      </c>
-      <c r="Q73">
-        <v>6.726713645327612</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -5033,15 +4370,6 @@
       <c r="N74">
         <v>0.79</v>
       </c>
-      <c r="O74">
-        <v>761</v>
-      </c>
-      <c r="P74">
-        <v>5.02066654131494</v>
-      </c>
-      <c r="Q74">
-        <v>6.724366961998673</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -5096,15 +4424,6 @@
       <c r="N75">
         <v>0.93</v>
       </c>
-      <c r="O75">
-        <v>885</v>
-      </c>
-      <c r="P75">
-        <v>4.074792001436537</v>
-      </c>
-      <c r="Q75">
-        <v>7.017639917420922</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -5159,15 +4478,6 @@
       <c r="N76">
         <v>1.005</v>
       </c>
-      <c r="O76">
-        <v>1551</v>
-      </c>
-      <c r="P76">
-        <v>7.060173067556433</v>
-      </c>
-      <c r="Q76">
-        <v>7.129205635264749</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -5222,15 +4532,6 @@
       <c r="N77">
         <v>0.971</v>
       </c>
-      <c r="O77">
-        <v>1595</v>
-      </c>
-      <c r="P77">
-        <v>4.150657144009587</v>
-      </c>
-      <c r="Q77">
-        <v>6.562035484692811</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -5285,15 +4586,6 @@
       <c r="N78">
         <v>0.677</v>
       </c>
-      <c r="O78">
-        <v>5785</v>
-      </c>
-      <c r="P78">
-        <v>4.866790025982854</v>
-      </c>
-      <c r="Q78">
-        <v>6.584076891523893</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -5348,15 +4640,6 @@
       <c r="N79">
         <v>0.672</v>
       </c>
-      <c r="O79">
-        <v>4849</v>
-      </c>
-      <c r="P79">
-        <v>5.297198624192215</v>
-      </c>
-      <c r="Q79">
-        <v>5.799431646049645</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -5411,15 +4694,6 @@
       <c r="N80">
         <v>0.703</v>
       </c>
-      <c r="O80">
-        <v>3135</v>
-      </c>
-      <c r="P80">
-        <v>6.795967075869873</v>
-      </c>
-      <c r="Q80">
-        <v>7.154497604122967</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -5474,15 +4748,6 @@
       <c r="N81">
         <v>0.8110000000000001</v>
       </c>
-      <c r="O81">
-        <v>2796</v>
-      </c>
-      <c r="P81">
-        <v>5.140660306417184</v>
-      </c>
-      <c r="Q81">
-        <v>5.851588171106905</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -5537,15 +4802,6 @@
       <c r="N82">
         <v>0.634</v>
       </c>
-      <c r="O82">
-        <v>4538</v>
-      </c>
-      <c r="P82">
-        <v>5.81011251491578</v>
-      </c>
-      <c r="Q82">
-        <v>6.584027963207871</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -5600,15 +4856,6 @@
       <c r="N83">
         <v>0.793</v>
       </c>
-      <c r="O83">
-        <v>1418</v>
-      </c>
-      <c r="P83">
-        <v>5.015421182196316</v>
-      </c>
-      <c r="Q83">
-        <v>5.705122452354891</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -5663,15 +4910,6 @@
       <c r="N84">
         <v>0.92</v>
       </c>
-      <c r="O84">
-        <v>3220</v>
-      </c>
-      <c r="P84">
-        <v>5.533126156135541</v>
-      </c>
-      <c r="Q84">
-        <v>7.164073607398461</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -5726,15 +4964,6 @@
       <c r="N85">
         <v>0.661</v>
       </c>
-      <c r="O85">
-        <v>894</v>
-      </c>
-      <c r="P85">
-        <v>9.998210611076317</v>
-      </c>
-      <c r="Q85">
-        <v>7.791702751029752</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -5789,15 +5018,6 @@
       <c r="N86">
         <v>0.754</v>
       </c>
-      <c r="O86">
-        <v>3638</v>
-      </c>
-      <c r="P86">
-        <v>5.759231511449995</v>
-      </c>
-      <c r="Q86">
-        <v>7.273562307100192</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -5852,15 +5072,6 @@
       <c r="N87">
         <v>0.695</v>
       </c>
-      <c r="O87">
-        <v>6021</v>
-      </c>
-      <c r="P87">
-        <v>5.630378421090775</v>
-      </c>
-      <c r="Q87">
-        <v>5.802579536414118</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -5915,15 +5126,6 @@
       <c r="N88">
         <v>1.016</v>
       </c>
-      <c r="O88">
-        <v>292</v>
-      </c>
-      <c r="P88">
-        <v>3.693560934268529</v>
-      </c>
-      <c r="Q88">
-        <v>4.321141951010741</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -5978,15 +5180,6 @@
       <c r="N89">
         <v>0.68</v>
       </c>
-      <c r="O89">
-        <v>1081</v>
-      </c>
-      <c r="P89">
-        <v>5.781614359369318</v>
-      </c>
-      <c r="Q89">
-        <v>6.451970513414428</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -6041,15 +5234,6 @@
       <c r="N90">
         <v>0.754</v>
       </c>
-      <c r="O90">
-        <v>4304</v>
-      </c>
-      <c r="P90">
-        <v>5.88633117040751</v>
-      </c>
-      <c r="Q90">
-        <v>6.462753742835359</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -6104,15 +5288,6 @@
       <c r="N91">
         <v>0.6899999999999999</v>
       </c>
-      <c r="O91">
-        <v>1008</v>
-      </c>
-      <c r="P91">
-        <v>4.403804397688003</v>
-      </c>
-      <c r="Q91">
-        <v>6.519247016082007</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -6167,15 +5342,6 @@
       <c r="N92">
         <v>0.827</v>
       </c>
-      <c r="O92">
-        <v>2324</v>
-      </c>
-      <c r="P92">
-        <v>4.520868652619682</v>
-      </c>
-      <c r="Q92">
-        <v>6.813202295787845</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -6230,15 +5396,6 @@
       <c r="N93">
         <v>0.8080000000000001</v>
       </c>
-      <c r="O93">
-        <v>1511</v>
-      </c>
-      <c r="P93">
-        <v>5.753856054591185</v>
-      </c>
-      <c r="Q93">
-        <v>6.16095463373011</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -6293,15 +5450,6 @@
       <c r="N94">
         <v>0.755</v>
       </c>
-      <c r="O94">
-        <v>777</v>
-      </c>
-      <c r="P94">
-        <v>4.891576352974135</v>
-      </c>
-      <c r="Q94">
-        <v>5.403321457232791</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -6356,15 +5504,6 @@
       <c r="N95">
         <v>0.788</v>
       </c>
-      <c r="O95">
-        <v>1389</v>
-      </c>
-      <c r="P95">
-        <v>4.251158050343627</v>
-      </c>
-      <c r="Q95">
-        <v>5.857296592368053</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -6419,15 +5558,6 @@
       <c r="N96">
         <v>0.741</v>
       </c>
-      <c r="O96">
-        <v>5283</v>
-      </c>
-      <c r="P96">
-        <v>4.936372835840142</v>
-      </c>
-      <c r="Q96">
-        <v>5.470965705197649</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -6482,15 +5612,6 @@
       <c r="N97">
         <v>0.756</v>
       </c>
-      <c r="O97">
-        <v>2979</v>
-      </c>
-      <c r="P97">
-        <v>6.024863940006188</v>
-      </c>
-      <c r="Q97">
-        <v>6.528505454314706</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -6545,15 +5666,6 @@
       <c r="N98">
         <v>0.851</v>
       </c>
-      <c r="O98">
-        <v>1431</v>
-      </c>
-      <c r="P98">
-        <v>6.455804133338747</v>
-      </c>
-      <c r="Q98">
-        <v>6.829100904599665</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -6608,15 +5720,6 @@
       <c r="N99">
         <v>0.741</v>
       </c>
-      <c r="O99">
-        <v>1491</v>
-      </c>
-      <c r="P99">
-        <v>7.923875524471808</v>
-      </c>
-      <c r="Q99">
-        <v>7.180709787724954</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -6671,15 +5774,6 @@
       <c r="N100">
         <v>0.836</v>
       </c>
-      <c r="O100">
-        <v>2339</v>
-      </c>
-      <c r="P100">
-        <v>4.840961279553613</v>
-      </c>
-      <c r="Q100">
-        <v>6.048482724968809</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -6734,15 +5828,6 @@
       <c r="N101">
         <v>0.976</v>
       </c>
-      <c r="O101">
-        <v>3576</v>
-      </c>
-      <c r="P101">
-        <v>3.865517604805954</v>
-      </c>
-      <c r="Q101">
-        <v>6.452215171379038</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -6797,15 +5882,6 @@
       <c r="N102">
         <v>0.783</v>
       </c>
-      <c r="O102">
-        <v>2019</v>
-      </c>
-      <c r="P102">
-        <v>5.178735634395116</v>
-      </c>
-      <c r="Q102">
-        <v>6.148167371824414</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -6860,15 +5936,6 @@
       <c r="N103">
         <v>0.9340000000000001</v>
       </c>
-      <c r="O103">
-        <v>1815</v>
-      </c>
-      <c r="P103">
-        <v>7.129795671448016</v>
-      </c>
-      <c r="Q103">
-        <v>7.318425581749398</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -6923,15 +5990,6 @@
       <c r="N104">
         <v>0.783</v>
       </c>
-      <c r="O104">
-        <v>1463</v>
-      </c>
-      <c r="P104">
-        <v>10.13410545565376</v>
-      </c>
-      <c r="Q104">
-        <v>7.886700829506625</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -6986,15 +6044,6 @@
       <c r="N105">
         <v>0.789</v>
       </c>
-      <c r="O105">
-        <v>1150</v>
-      </c>
-      <c r="P105">
-        <v>10.13760699583036</v>
-      </c>
-      <c r="Q105">
-        <v>7.359950686618784</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -7049,15 +6098,6 @@
       <c r="N106">
         <v>0.895</v>
       </c>
-      <c r="O106">
-        <v>491</v>
-      </c>
-      <c r="P106">
-        <v>11.80416150785542</v>
-      </c>
-      <c r="Q106">
-        <v>7.064817529795579</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -7112,15 +6152,6 @@
       <c r="N107">
         <v>0.723</v>
       </c>
-      <c r="O107">
-        <v>739</v>
-      </c>
-      <c r="P107">
-        <v>11.92685721663627</v>
-      </c>
-      <c r="Q107">
-        <v>7.486856802212504</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -7175,15 +6206,6 @@
       <c r="N108">
         <v>0.897</v>
       </c>
-      <c r="O108">
-        <v>1193</v>
-      </c>
-      <c r="P108">
-        <v>9.685878751958692</v>
-      </c>
-      <c r="Q108">
-        <v>6.263035934504174</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -7238,15 +6260,6 @@
       <c r="N109">
         <v>0.789</v>
       </c>
-      <c r="O109">
-        <v>2283</v>
-      </c>
-      <c r="P109">
-        <v>7.998038150957277</v>
-      </c>
-      <c r="Q109">
-        <v>6.704215946084577</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -7301,15 +6314,6 @@
       <c r="N110">
         <v>0.873</v>
       </c>
-      <c r="O110">
-        <v>2644</v>
-      </c>
-      <c r="P110">
-        <v>7.349374649938778</v>
-      </c>
-      <c r="Q110">
-        <v>7.12224670867702</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -7364,15 +6368,6 @@
       <c r="N111">
         <v>0.846</v>
       </c>
-      <c r="O111">
-        <v>1975</v>
-      </c>
-      <c r="P111">
-        <v>9.418598274131284</v>
-      </c>
-      <c r="Q111">
-        <v>6.935833387884806</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -7427,15 +6422,6 @@
       <c r="N112">
         <v>0.949</v>
       </c>
-      <c r="O112">
-        <v>819</v>
-      </c>
-      <c r="P112">
-        <v>9.235609533314163</v>
-      </c>
-      <c r="Q112">
-        <v>7.456777650301463</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -7490,15 +6476,6 @@
       <c r="N113">
         <v>0.698</v>
       </c>
-      <c r="O113">
-        <v>414</v>
-      </c>
-      <c r="P113">
-        <v>10.63228722584622</v>
-      </c>
-      <c r="Q113">
-        <v>7.55604844769084</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -7553,15 +6530,6 @@
       <c r="N114">
         <v>0.761</v>
       </c>
-      <c r="O114">
-        <v>715</v>
-      </c>
-      <c r="P114">
-        <v>8.711013645224172</v>
-      </c>
-      <c r="Q114">
-        <v>7.403960038837534</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -7616,15 +6584,6 @@
       <c r="N115">
         <v>1.201</v>
       </c>
-      <c r="O115">
-        <v>674</v>
-      </c>
-      <c r="P115">
-        <v>10.71593239741164</v>
-      </c>
-      <c r="Q115">
-        <v>6.707657010927242</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -7679,15 +6638,6 @@
       <c r="N116">
         <v>1.118</v>
       </c>
-      <c r="O116">
-        <v>812</v>
-      </c>
-      <c r="P116">
-        <v>12.03935029023434</v>
-      </c>
-      <c r="Q116">
-        <v>7.253273030139893</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -7742,15 +6692,6 @@
       <c r="N117">
         <v>0.924</v>
       </c>
-      <c r="O117">
-        <v>571</v>
-      </c>
-      <c r="P117">
-        <v>12.33714322753495</v>
-      </c>
-      <c r="Q117">
-        <v>6.4072022925129</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -7805,15 +6746,6 @@
       <c r="N118">
         <v>0.9389999999999999</v>
       </c>
-      <c r="O118">
-        <v>486</v>
-      </c>
-      <c r="P118">
-        <v>13.01065481608395</v>
-      </c>
-      <c r="Q118">
-        <v>7.15927742500963</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -7868,15 +6800,6 @@
       <c r="N119">
         <v>0.754</v>
       </c>
-      <c r="O119">
-        <v>470</v>
-      </c>
-      <c r="P119">
-        <v>11.55018185392706</v>
-      </c>
-      <c r="Q119">
-        <v>6.520498588102431</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -7931,15 +6854,6 @@
       <c r="N120">
         <v>0.971</v>
       </c>
-      <c r="O120">
-        <v>442</v>
-      </c>
-      <c r="P120">
-        <v>12.83149231416835</v>
-      </c>
-      <c r="Q120">
-        <v>7.985296627571277</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -7994,15 +6908,6 @@
       <c r="N121">
         <v>1.248</v>
       </c>
-      <c r="O121">
-        <v>449</v>
-      </c>
-      <c r="P121">
-        <v>10.75268817204301</v>
-      </c>
-      <c r="Q121">
-        <v>7.7863917170012</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -8057,15 +6962,6 @@
       <c r="N122">
         <v>1.271</v>
       </c>
-      <c r="O122">
-        <v>232</v>
-      </c>
-      <c r="P122">
-        <v>10.0267957472556</v>
-      </c>
-      <c r="Q122">
-        <v>6.415444838332984</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -8120,15 +7016,6 @@
       <c r="N123">
         <v>1.278</v>
       </c>
-      <c r="O123">
-        <v>225</v>
-      </c>
-      <c r="P123">
-        <v>10.62047154893677</v>
-      </c>
-      <c r="Q123">
-        <v>6.969111767330958</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -8183,15 +7070,6 @@
       <c r="N124">
         <v>1.355</v>
       </c>
-      <c r="O124">
-        <v>293</v>
-      </c>
-      <c r="P124">
-        <v>9.142536195706441</v>
-      </c>
-      <c r="Q124">
-        <v>6.886395317056253</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -8246,15 +7124,6 @@
       <c r="N125">
         <v>0.87</v>
       </c>
-      <c r="O125">
-        <v>345</v>
-      </c>
-      <c r="P125">
-        <v>12.67473686144125</v>
-      </c>
-      <c r="Q125">
-        <v>7.563301680881088</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -8309,15 +7178,6 @@
       <c r="N126">
         <v>0.824</v>
       </c>
-      <c r="O126">
-        <v>375</v>
-      </c>
-      <c r="P126">
-        <v>13.53521863889841</v>
-      </c>
-      <c r="Q126">
-        <v>7.33830286176789</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -8372,15 +7232,6 @@
       <c r="N127">
         <v>0.9419999999999999</v>
       </c>
-      <c r="O127">
-        <v>2058</v>
-      </c>
-      <c r="P127">
-        <v>9.922017187556499</v>
-      </c>
-      <c r="Q127">
-        <v>7.683895623165926</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -8435,15 +7286,6 @@
       <c r="N128">
         <v>0.922</v>
       </c>
-      <c r="O128">
-        <v>1269</v>
-      </c>
-      <c r="P128">
-        <v>9.743288532633107</v>
-      </c>
-      <c r="Q128">
-        <v>7.237590761647693</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -8498,15 +7340,6 @@
       <c r="N129">
         <v>0.88</v>
       </c>
-      <c r="O129">
-        <v>5166</v>
-      </c>
-      <c r="P129">
-        <v>6.08875007366374</v>
-      </c>
-      <c r="Q129">
-        <v>6.879171260641704</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -8561,15 +7394,6 @@
       <c r="N130">
         <v>0.856</v>
       </c>
-      <c r="O130">
-        <v>494</v>
-      </c>
-      <c r="P130">
-        <v>15.85467616663457</v>
-      </c>
-      <c r="Q130">
-        <v>7.755061541031713</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -8624,15 +7448,6 @@
       <c r="N131">
         <v>0.754</v>
       </c>
-      <c r="O131">
-        <v>705</v>
-      </c>
-      <c r="P131">
-        <v>14.35728250244379</v>
-      </c>
-      <c r="Q131">
-        <v>7.393401431262763</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -8687,15 +7502,6 @@
       <c r="N132">
         <v>0.866</v>
       </c>
-      <c r="O132">
-        <v>747</v>
-      </c>
-      <c r="P132">
-        <v>16.80199734586923</v>
-      </c>
-      <c r="Q132">
-        <v>8.100441891585628</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -8750,15 +7556,6 @@
       <c r="N133">
         <v>0.911</v>
       </c>
-      <c r="O133">
-        <v>740</v>
-      </c>
-      <c r="P133">
-        <v>8.607203298652507</v>
-      </c>
-      <c r="Q133">
-        <v>7.691639253340119</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -8813,15 +7610,6 @@
       <c r="N134">
         <v>0.6889999999999999</v>
       </c>
-      <c r="O134">
-        <v>605</v>
-      </c>
-      <c r="P134">
-        <v>16.46930720021778</v>
-      </c>
-      <c r="Q134">
-        <v>7.711745343616064</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -8876,15 +7664,6 @@
       <c r="N135">
         <v>0.797</v>
       </c>
-      <c r="O135">
-        <v>1006</v>
-      </c>
-      <c r="P135">
-        <v>11.02713486317474</v>
-      </c>
-      <c r="Q135">
-        <v>8.105113801297151</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -8939,15 +7718,6 @@
       <c r="N136">
         <v>0.751</v>
       </c>
-      <c r="O136">
-        <v>368</v>
-      </c>
-      <c r="P136">
-        <v>13.2986412257878</v>
-      </c>
-      <c r="Q136">
-        <v>8.189165498799811</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -9002,15 +7772,6 @@
       <c r="N137">
         <v>1.07</v>
       </c>
-      <c r="O137">
-        <v>305</v>
-      </c>
-      <c r="P137">
-        <v>8.185941651681473</v>
-      </c>
-      <c r="Q137">
-        <v>7.383096526016673</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -9065,15 +7826,6 @@
       <c r="N138">
         <v>0.767</v>
       </c>
-      <c r="O138">
-        <v>3523</v>
-      </c>
-      <c r="P138">
-        <v>5.384540728326765</v>
-      </c>
-      <c r="Q138">
-        <v>7.147503241360504</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -9128,15 +7880,6 @@
       <c r="N139">
         <v>0.8169999999999999</v>
       </c>
-      <c r="O139">
-        <v>1271</v>
-      </c>
-      <c r="P139">
-        <v>12.45828044363633</v>
-      </c>
-      <c r="Q139">
-        <v>7.181603953276046</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140">
@@ -9191,15 +7934,6 @@
       <c r="N140">
         <v>0.803</v>
       </c>
-      <c r="O140">
-        <v>1205</v>
-      </c>
-      <c r="P140">
-        <v>12.52182226286474</v>
-      </c>
-      <c r="Q140">
-        <v>7.419883959959671</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -9254,15 +7988,6 @@
       <c r="N141">
         <v>0.904</v>
       </c>
-      <c r="O141">
-        <v>1978</v>
-      </c>
-      <c r="P141">
-        <v>5.833474648126166</v>
-      </c>
-      <c r="Q141">
-        <v>6.767316251193193</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -9317,15 +8042,6 @@
       <c r="N142">
         <v>1.017</v>
       </c>
-      <c r="O142">
-        <v>1433</v>
-      </c>
-      <c r="P142">
-        <v>8.152537214085172</v>
-      </c>
-      <c r="Q142">
-        <v>6.509723826322722</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -9380,15 +8096,6 @@
       <c r="N143">
         <v>0.868</v>
       </c>
-      <c r="O143">
-        <v>1495</v>
-      </c>
-      <c r="P143">
-        <v>13.44110190063474</v>
-      </c>
-      <c r="Q143">
-        <v>7.946201097969086</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -9443,15 +8150,6 @@
       <c r="N144">
         <v>0.797</v>
       </c>
-      <c r="O144">
-        <v>257</v>
-      </c>
-      <c r="P144">
-        <v>5.654316641731937</v>
-      </c>
-      <c r="Q144">
-        <v>7.171002394083144</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -9506,15 +8204,6 @@
       <c r="N145">
         <v>1.025</v>
       </c>
-      <c r="O145">
-        <v>1444</v>
-      </c>
-      <c r="P145">
-        <v>8.554502369668246</v>
-      </c>
-      <c r="Q145">
-        <v>6.7110918321786</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146">
@@ -9569,15 +8258,6 @@
       <c r="N146">
         <v>0.703</v>
       </c>
-      <c r="O146">
-        <v>781</v>
-      </c>
-      <c r="P146">
-        <v>15.63720092101311</v>
-      </c>
-      <c r="Q146">
-        <v>7.496970852346879</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -9632,15 +8312,6 @@
       <c r="N147">
         <v>0.54</v>
       </c>
-      <c r="O147">
-        <v>1072</v>
-      </c>
-      <c r="P147">
-        <v>17.41319796954315</v>
-      </c>
-      <c r="Q147">
-        <v>7.935727017312605</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -9695,15 +8366,6 @@
       <c r="N148">
         <v>0.73</v>
       </c>
-      <c r="O148">
-        <v>898</v>
-      </c>
-      <c r="P148">
-        <v>18.17905764461764</v>
-      </c>
-      <c r="Q148">
-        <v>8.725854317985252</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -9758,15 +8420,6 @@
       <c r="N149">
         <v>0.759</v>
       </c>
-      <c r="O149">
-        <v>510</v>
-      </c>
-      <c r="P149">
-        <v>16.92131588115264</v>
-      </c>
-      <c r="Q149">
-        <v>7.608515849804102</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -9821,15 +8474,6 @@
       <c r="N150">
         <v>0.899</v>
       </c>
-      <c r="O150">
-        <v>1052</v>
-      </c>
-      <c r="P150">
-        <v>10.78310783107831</v>
-      </c>
-      <c r="Q150">
-        <v>6.88932435283234</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -9884,15 +8528,6 @@
       <c r="N151">
         <v>1.026</v>
       </c>
-      <c r="O151">
-        <v>1130</v>
-      </c>
-      <c r="P151">
-        <v>14.55669704679398</v>
-      </c>
-      <c r="Q151">
-        <v>7.162176456964001</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152">
@@ -9947,15 +8582,6 @@
       <c r="N152">
         <v>0.737</v>
       </c>
-      <c r="O152">
-        <v>732</v>
-      </c>
-      <c r="P152">
-        <v>12.02829607355007</v>
-      </c>
-      <c r="Q152">
-        <v>6.256226953676007</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -10010,15 +8636,6 @@
       <c r="N153">
         <v>0.6909999999999999</v>
       </c>
-      <c r="O153">
-        <v>3912</v>
-      </c>
-      <c r="P153">
-        <v>6.061376081115839</v>
-      </c>
-      <c r="Q153">
-        <v>6.216005895498786</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154">
@@ -10073,15 +8690,6 @@
       <c r="N154">
         <v>0.796</v>
       </c>
-      <c r="O154">
-        <v>2259</v>
-      </c>
-      <c r="P154">
-        <v>8.676831247347305</v>
-      </c>
-      <c r="Q154">
-        <v>7.23222979811797</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155">
@@ -10136,15 +8744,6 @@
       <c r="N155">
         <v>0.704</v>
       </c>
-      <c r="O155">
-        <v>2665</v>
-      </c>
-      <c r="P155">
-        <v>9.840775150288762</v>
-      </c>
-      <c r="Q155">
-        <v>7.575876847598559</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -10199,15 +8798,6 @@
       <c r="N156">
         <v>0.875</v>
       </c>
-      <c r="O156">
-        <v>1440</v>
-      </c>
-      <c r="P156">
-        <v>13.84755191629924</v>
-      </c>
-      <c r="Q156">
-        <v>7.654838641024969</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157">
@@ -10262,15 +8852,6 @@
       <c r="N157">
         <v>0.908</v>
       </c>
-      <c r="O157">
-        <v>1009</v>
-      </c>
-      <c r="P157">
-        <v>13.0699481865285</v>
-      </c>
-      <c r="Q157">
-        <v>6.922790500524045</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158">
@@ -10325,15 +8906,6 @@
       <c r="N158">
         <v>1.367</v>
       </c>
-      <c r="O158">
-        <v>1262</v>
-      </c>
-      <c r="P158">
-        <v>15.5328812140756</v>
-      </c>
-      <c r="Q158">
-        <v>7.635654767032136</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159">
@@ -10388,15 +8960,6 @@
       <c r="N159">
         <v>0.893</v>
       </c>
-      <c r="O159">
-        <v>967</v>
-      </c>
-      <c r="P159">
-        <v>10.18650682875186</v>
-      </c>
-      <c r="Q159">
-        <v>6.620539305112613</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160">
@@ -10451,15 +9014,6 @@
       <c r="N160">
         <v>1.315</v>
       </c>
-      <c r="O160">
-        <v>396</v>
-      </c>
-      <c r="P160">
-        <v>16.1926764940402</v>
-      </c>
-      <c r="Q160">
-        <v>7.17795736112453</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161">
@@ -10514,15 +9068,6 @@
       <c r="N161">
         <v>0.726</v>
       </c>
-      <c r="O161">
-        <v>380</v>
-      </c>
-      <c r="P161">
-        <v>16.28524899288592</v>
-      </c>
-      <c r="Q161">
-        <v>6.986583030224065</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162">
@@ -10577,15 +9122,6 @@
       <c r="N162">
         <v>1.125</v>
       </c>
-      <c r="O162">
-        <v>315</v>
-      </c>
-      <c r="P162">
-        <v>14.90383478034586</v>
-      </c>
-      <c r="Q162">
-        <v>7.266250512023113</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163">
@@ -10640,15 +9176,6 @@
       <c r="N163">
         <v>1.285</v>
       </c>
-      <c r="O163">
-        <v>456</v>
-      </c>
-      <c r="P163">
-        <v>17.42353323271498</v>
-      </c>
-      <c r="Q163">
-        <v>7.179162192913097</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164">
@@ -10703,15 +9230,6 @@
       <c r="N164">
         <v>1.008</v>
       </c>
-      <c r="O164">
-        <v>428</v>
-      </c>
-      <c r="P164">
-        <v>16.03296497471437</v>
-      </c>
-      <c r="Q164">
-        <v>7.435149526195016</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165">
@@ -10766,15 +9284,6 @@
       <c r="N165">
         <v>0.891</v>
       </c>
-      <c r="O165">
-        <v>890</v>
-      </c>
-      <c r="P165">
-        <v>17.15051017950225</v>
-      </c>
-      <c r="Q165">
-        <v>7.88522092507756</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166">
@@ -10829,15 +9338,6 @@
       <c r="N166">
         <v>0.845</v>
       </c>
-      <c r="O166">
-        <v>822</v>
-      </c>
-      <c r="P166">
-        <v>16.62907255494978</v>
-      </c>
-      <c r="Q166">
-        <v>7.790360998713395</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167">
@@ -10892,15 +9392,6 @@
       <c r="N167">
         <v>0.762</v>
       </c>
-      <c r="O167">
-        <v>1761</v>
-      </c>
-      <c r="P167">
-        <v>8.19330810048783</v>
-      </c>
-      <c r="Q167">
-        <v>8.013796610712637</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168">
@@ -10955,15 +9446,6 @@
       <c r="N168">
         <v>0.853</v>
       </c>
-      <c r="O168">
-        <v>2337</v>
-      </c>
-      <c r="P168">
-        <v>8.573346686770192</v>
-      </c>
-      <c r="Q168">
-        <v>7.106276404644053</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169">
@@ -11018,15 +9500,6 @@
       <c r="N169">
         <v>0.897</v>
       </c>
-      <c r="O169">
-        <v>1966</v>
-      </c>
-      <c r="P169">
-        <v>7.07598950478871</v>
-      </c>
-      <c r="Q169">
-        <v>6.599367802134696</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170">
@@ -11081,15 +9554,6 @@
       <c r="N170">
         <v>1.086</v>
       </c>
-      <c r="O170">
-        <v>1210</v>
-      </c>
-      <c r="P170">
-        <v>10.36997677468012</v>
-      </c>
-      <c r="Q170">
-        <v>7.194440481941417</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171">
@@ -11144,15 +9608,6 @@
       <c r="N171">
         <v>0.996</v>
       </c>
-      <c r="O171">
-        <v>916</v>
-      </c>
-      <c r="P171">
-        <v>6.020176793401466</v>
-      </c>
-      <c r="Q171">
-        <v>6.399557930462616</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172">
@@ -11207,15 +9662,6 @@
       <c r="N172">
         <v>1.132</v>
       </c>
-      <c r="O172">
-        <v>655</v>
-      </c>
-      <c r="P172">
-        <v>14.39908549319616</v>
-      </c>
-      <c r="Q172">
-        <v>6.576752199866639</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173">
@@ -11270,15 +9716,6 @@
       <c r="N173">
         <v>0.846</v>
       </c>
-      <c r="O173">
-        <v>471</v>
-      </c>
-      <c r="P173">
-        <v>17.49888542131075</v>
-      </c>
-      <c r="Q173">
-        <v>6.795399406319779</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174">
@@ -11333,15 +9770,6 @@
       <c r="N174">
         <v>0.77</v>
       </c>
-      <c r="O174">
-        <v>411</v>
-      </c>
-      <c r="P174">
-        <v>16.82254466569797</v>
-      </c>
-      <c r="Q174">
-        <v>7.321922593576419</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175">
@@ -11396,15 +9824,6 @@
       <c r="N175">
         <v>1.153</v>
       </c>
-      <c r="O175">
-        <v>1158</v>
-      </c>
-      <c r="P175">
-        <v>18.88223064693653</v>
-      </c>
-      <c r="Q175">
-        <v>7.081723973783267</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176">
@@ -11459,15 +9878,6 @@
       <c r="N176">
         <v>1.092</v>
       </c>
-      <c r="O176">
-        <v>751</v>
-      </c>
-      <c r="P176">
-        <v>19.75951798352935</v>
-      </c>
-      <c r="Q176">
-        <v>7.690186807845702</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177">
@@ -11522,15 +9932,6 @@
       <c r="N177">
         <v>0.898</v>
       </c>
-      <c r="O177">
-        <v>714</v>
-      </c>
-      <c r="P177">
-        <v>11.61769012984477</v>
-      </c>
-      <c r="Q177">
-        <v>6.49550174766261</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178">
@@ -11585,15 +9986,6 @@
       <c r="N178">
         <v>1.257</v>
       </c>
-      <c r="O178">
-        <v>596</v>
-      </c>
-      <c r="P178">
-        <v>16.90780141843972</v>
-      </c>
-      <c r="Q178">
-        <v>8.024209892029534</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179">
@@ -11648,15 +10040,6 @@
       <c r="N179">
         <v>1.468</v>
       </c>
-      <c r="O179">
-        <v>551</v>
-      </c>
-      <c r="P179">
-        <v>16.76836226966326</v>
-      </c>
-      <c r="Q179">
-        <v>7.06956817626255</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180">
@@ -11711,15 +10094,6 @@
       <c r="N180">
         <v>1.356</v>
       </c>
-      <c r="O180">
-        <v>1057</v>
-      </c>
-      <c r="P180">
-        <v>16.24616708806283</v>
-      </c>
-      <c r="Q180">
-        <v>8.10549266821263</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181">
@@ -11774,15 +10148,6 @@
       <c r="N181">
         <v>1.009</v>
       </c>
-      <c r="O181">
-        <v>650</v>
-      </c>
-      <c r="P181">
-        <v>12.43876301285977</v>
-      </c>
-      <c r="Q181">
-        <v>7.316904150430716</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182">
@@ -11837,15 +10202,6 @@
       <c r="N182">
         <v>0.968</v>
       </c>
-      <c r="O182">
-        <v>849</v>
-      </c>
-      <c r="P182">
-        <v>9.402566047765921</v>
-      </c>
-      <c r="Q182">
-        <v>7.899893276007378</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183">
@@ -11900,15 +10256,6 @@
       <c r="N183">
         <v>1.217</v>
       </c>
-      <c r="O183">
-        <v>470</v>
-      </c>
-      <c r="P183">
-        <v>15.35220238775744</v>
-      </c>
-      <c r="Q183">
-        <v>6.071795855803413</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184">
@@ -11963,15 +10310,6 @@
       <c r="N184">
         <v>1.651</v>
       </c>
-      <c r="O184">
-        <v>782</v>
-      </c>
-      <c r="P184">
-        <v>15.07862287053016</v>
-      </c>
-      <c r="Q184">
-        <v>8.579045979007363</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185">
@@ -12026,15 +10364,6 @@
       <c r="N185">
         <v>1.152</v>
       </c>
-      <c r="O185">
-        <v>595</v>
-      </c>
-      <c r="P185">
-        <v>13.91519913936247</v>
-      </c>
-      <c r="Q185">
-        <v>6.752252037541749</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186">
@@ -12089,15 +10418,6 @@
       <c r="N186">
         <v>1.048</v>
       </c>
-      <c r="O186">
-        <v>724</v>
-      </c>
-      <c r="P186">
-        <v>15.40638598955175</v>
-      </c>
-      <c r="Q186">
-        <v>7.425412997149359</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187">
@@ -12152,15 +10472,6 @@
       <c r="N187">
         <v>0.908</v>
       </c>
-      <c r="O187">
-        <v>480</v>
-      </c>
-      <c r="P187">
-        <v>16.44849564800219</v>
-      </c>
-      <c r="Q187">
-        <v>8.071561393722694</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188">
@@ -12215,15 +10526,6 @@
       <c r="N188">
         <v>1.164</v>
       </c>
-      <c r="O188">
-        <v>682</v>
-      </c>
-      <c r="P188">
-        <v>18.02254138974406</v>
-      </c>
-      <c r="Q188">
-        <v>8.041516450556252</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189">
@@ -12278,15 +10580,6 @@
       <c r="N189">
         <v>0.848</v>
       </c>
-      <c r="O189">
-        <v>3581</v>
-      </c>
-      <c r="P189">
-        <v>7.259583318973644</v>
-      </c>
-      <c r="Q189">
-        <v>7.01851526589593</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190">
@@ -12341,15 +10634,6 @@
       <c r="N190">
         <v>0.909</v>
       </c>
-      <c r="O190">
-        <v>2518</v>
-      </c>
-      <c r="P190">
-        <v>10.1650303578349</v>
-      </c>
-      <c r="Q190">
-        <v>7.106814315568245</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191">
@@ -12404,15 +10688,6 @@
       <c r="N191">
         <v>1.062</v>
       </c>
-      <c r="O191">
-        <v>1515</v>
-      </c>
-      <c r="P191">
-        <v>10.97273474590695</v>
-      </c>
-      <c r="Q191">
-        <v>7.383270216541079</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192">
@@ -12467,15 +10742,6 @@
       <c r="N192">
         <v>0.887</v>
       </c>
-      <c r="O192">
-        <v>1849</v>
-      </c>
-      <c r="P192">
-        <v>12.0481535178458</v>
-      </c>
-      <c r="Q192">
-        <v>7.628126152936119</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193">
@@ -12530,15 +10796,6 @@
       <c r="N193">
         <v>0.71</v>
       </c>
-      <c r="O193">
-        <v>2022</v>
-      </c>
-      <c r="P193">
-        <v>4.986227457788453</v>
-      </c>
-      <c r="Q193">
-        <v>7.33419602568414</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194">
@@ -12593,15 +10850,6 @@
       <c r="N194">
         <v>0.863</v>
       </c>
-      <c r="O194">
-        <v>1264</v>
-      </c>
-      <c r="P194">
-        <v>12.60590103769304</v>
-      </c>
-      <c r="Q194">
-        <v>7.486281819507882</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195">
@@ -12656,15 +10904,6 @@
       <c r="N195">
         <v>1.189</v>
       </c>
-      <c r="O195">
-        <v>1334</v>
-      </c>
-      <c r="P195">
-        <v>13.28281747078826</v>
-      </c>
-      <c r="Q195">
-        <v>7.656763175950159</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196">
@@ -12719,15 +10958,6 @@
       <c r="N196">
         <v>0.978</v>
       </c>
-      <c r="O196">
-        <v>1301</v>
-      </c>
-      <c r="P196">
-        <v>13.81507340253259</v>
-      </c>
-      <c r="Q196">
-        <v>6.766592413931174</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197">
@@ -12782,15 +11012,6 @@
       <c r="N197">
         <v>0.917</v>
       </c>
-      <c r="O197">
-        <v>954</v>
-      </c>
-      <c r="P197">
-        <v>13.75928463258095</v>
-      </c>
-      <c r="Q197">
-        <v>6.988066795012608</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198">
@@ -12845,15 +11066,6 @@
       <c r="N198">
         <v>0.8070000000000001</v>
       </c>
-      <c r="O198">
-        <v>1961</v>
-      </c>
-      <c r="P198">
-        <v>7.370573333634019</v>
-      </c>
-      <c r="Q198">
-        <v>6.958947649121212</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199">
@@ -12908,15 +11120,6 @@
       <c r="N199">
         <v>1.406</v>
       </c>
-      <c r="O199">
-        <v>1059</v>
-      </c>
-      <c r="P199">
-        <v>21.18805145955463</v>
-      </c>
-      <c r="Q199">
-        <v>7.752741413954821</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200">
@@ -12971,15 +11174,6 @@
       <c r="N200">
         <v>1.334</v>
       </c>
-      <c r="O200">
-        <v>381</v>
-      </c>
-      <c r="P200">
-        <v>15.79471022303292</v>
-      </c>
-      <c r="Q200">
-        <v>6.838791222654484</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201">
@@ -13034,15 +11228,6 @@
       <c r="N201">
         <v>0.755</v>
       </c>
-      <c r="O201">
-        <v>277</v>
-      </c>
-      <c r="P201">
-        <v>17.5183405008854</v>
-      </c>
-      <c r="Q201">
-        <v>7.135872423498707</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202">
@@ -13097,15 +11282,6 @@
       <c r="N202">
         <v>0.864</v>
       </c>
-      <c r="O202">
-        <v>597</v>
-      </c>
-      <c r="P202">
-        <v>17.4326928692402</v>
-      </c>
-      <c r="Q202">
-        <v>7.160571855629948</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203">
@@ -13160,15 +11336,6 @@
       <c r="N203">
         <v>0.909</v>
       </c>
-      <c r="O203">
-        <v>674</v>
-      </c>
-      <c r="P203">
-        <v>16.29968198691672</v>
-      </c>
-      <c r="Q203">
-        <v>6.96187951283744</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204">
@@ -13223,15 +11390,6 @@
       <c r="N204">
         <v>1.038</v>
       </c>
-      <c r="O204">
-        <v>417</v>
-      </c>
-      <c r="P204">
-        <v>13.81732633078746</v>
-      </c>
-      <c r="Q204">
-        <v>6.803128652922211</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205">
@@ -13286,15 +11444,6 @@
       <c r="N205">
         <v>1.169</v>
       </c>
-      <c r="O205">
-        <v>649</v>
-      </c>
-      <c r="P205">
-        <v>15.38115157188733</v>
-      </c>
-      <c r="Q205">
-        <v>7.47587852096878</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206">
@@ -13349,15 +11498,6 @@
       <c r="N206">
         <v>0.646</v>
       </c>
-      <c r="O206">
-        <v>833</v>
-      </c>
-      <c r="P206">
-        <v>7.493298310634547</v>
-      </c>
-      <c r="Q206">
-        <v>6.711820892226432</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207">
@@ -13412,15 +11552,6 @@
       <c r="N207">
         <v>1.184</v>
       </c>
-      <c r="O207">
-        <v>875</v>
-      </c>
-      <c r="P207">
-        <v>15.78510607591283</v>
-      </c>
-      <c r="Q207">
-        <v>7.898477826705685</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208">
@@ -13475,15 +11606,6 @@
       <c r="N208">
         <v>0.915</v>
       </c>
-      <c r="O208">
-        <v>509</v>
-      </c>
-      <c r="P208">
-        <v>17.12709041354016</v>
-      </c>
-      <c r="Q208">
-        <v>7.554145549071499</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209">
@@ -13538,15 +11660,6 @@
       <c r="N209">
         <v>1.053</v>
       </c>
-      <c r="O209">
-        <v>641</v>
-      </c>
-      <c r="P209">
-        <v>13.71122994652406</v>
-      </c>
-      <c r="Q209">
-        <v>7.741470290009356</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210">
@@ -13601,15 +11714,6 @@
       <c r="N210">
         <v>0.789</v>
       </c>
-      <c r="O210">
-        <v>72</v>
-      </c>
-      <c r="P210">
-        <v>8.045142186714342</v>
-      </c>
-      <c r="Q210">
-        <v>5.51681566176649</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211">
@@ -13664,15 +11768,6 @@
       <c r="N211">
         <v>0.887</v>
       </c>
-      <c r="O211">
-        <v>2545</v>
-      </c>
-      <c r="P211">
-        <v>7.44743268413375</v>
-      </c>
-      <c r="Q211">
-        <v>6.775181939868494</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212">
@@ -13727,15 +11822,6 @@
       <c r="N212">
         <v>0.711</v>
       </c>
-      <c r="O212">
-        <v>1113</v>
-      </c>
-      <c r="P212">
-        <v>9.176694658471128</v>
-      </c>
-      <c r="Q212">
-        <v>7.588802164727448</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213">
@@ -13790,15 +11876,6 @@
       <c r="N213">
         <v>0.909</v>
       </c>
-      <c r="O213">
-        <v>1255</v>
-      </c>
-      <c r="P213">
-        <v>11.52745693277793</v>
-      </c>
-      <c r="Q213">
-        <v>8.227026735230281</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214">
@@ -13853,15 +11930,6 @@
       <c r="N214">
         <v>0.838</v>
       </c>
-      <c r="O214">
-        <v>3066</v>
-      </c>
-      <c r="P214">
-        <v>5.75287948880806</v>
-      </c>
-      <c r="Q214">
-        <v>7.559570825116927</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215">
@@ -13916,15 +11984,6 @@
       <c r="N215">
         <v>0.741</v>
       </c>
-      <c r="O215">
-        <v>1277</v>
-      </c>
-      <c r="P215">
-        <v>12.51298332255473</v>
-      </c>
-      <c r="Q215">
-        <v>7.358910094955929</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216">
@@ -13979,15 +12038,6 @@
       <c r="N216">
         <v>0.717</v>
       </c>
-      <c r="O216">
-        <v>1288</v>
-      </c>
-      <c r="P216">
-        <v>5.49369696375141</v>
-      </c>
-      <c r="Q216">
-        <v>7.29804149486358</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217">
@@ -14042,15 +12092,6 @@
       <c r="N217">
         <v>0.806</v>
       </c>
-      <c r="O217">
-        <v>2059</v>
-      </c>
-      <c r="P217">
-        <v>5.823161419505187</v>
-      </c>
-      <c r="Q217">
-        <v>6.578994657116548</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218">
@@ -14105,15 +12146,6 @@
       <c r="N218">
         <v>0.774</v>
       </c>
-      <c r="O218">
-        <v>6578</v>
-      </c>
-      <c r="P218">
-        <v>6.504479864096122</v>
-      </c>
-      <c r="Q218">
-        <v>7.209044483735539</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219">
@@ -14168,15 +12200,6 @@
       <c r="N219">
         <v>0.746</v>
       </c>
-      <c r="O219">
-        <v>497</v>
-      </c>
-      <c r="P219">
-        <v>19.32799253325037</v>
-      </c>
-      <c r="Q219">
-        <v>7.800015362868542</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220">
@@ -14231,15 +12254,6 @@
       <c r="N220">
         <v>0.728</v>
       </c>
-      <c r="O220">
-        <v>788</v>
-      </c>
-      <c r="P220">
-        <v>12.99215194882279</v>
-      </c>
-      <c r="Q220">
-        <v>8.017152742846788</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221">
@@ -14294,15 +12308,6 @@
       <c r="N221">
         <v>0.8100000000000001</v>
       </c>
-      <c r="O221">
-        <v>910</v>
-      </c>
-      <c r="P221">
-        <v>15.79792543726401</v>
-      </c>
-      <c r="Q221">
-        <v>7.913075534708956</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222">
@@ -14357,15 +12362,6 @@
       <c r="N222">
         <v>0.619</v>
       </c>
-      <c r="O222">
-        <v>762</v>
-      </c>
-      <c r="P222">
-        <v>15.28570425572462</v>
-      </c>
-      <c r="Q222">
-        <v>7.415007943024232</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223">
@@ -14420,15 +12416,6 @@
       <c r="N223">
         <v>0.661</v>
       </c>
-      <c r="O223">
-        <v>751</v>
-      </c>
-      <c r="P223">
-        <v>18.28362751065125</v>
-      </c>
-      <c r="Q223">
-        <v>7.253655065169514</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224">
@@ -14483,15 +12470,6 @@
       <c r="N224">
         <v>0.868</v>
       </c>
-      <c r="O224">
-        <v>682</v>
-      </c>
-      <c r="P224">
-        <v>16.28248439197336</v>
-      </c>
-      <c r="Q224">
-        <v>6.987625750494158</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225">
@@ -14546,15 +12524,6 @@
       <c r="N225">
         <v>0.764</v>
       </c>
-      <c r="O225">
-        <v>579</v>
-      </c>
-      <c r="P225">
-        <v>17.12941733355029</v>
-      </c>
-      <c r="Q225">
-        <v>7.255129936730295</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226">
@@ -14609,15 +12578,6 @@
       <c r="N226">
         <v>0.734</v>
       </c>
-      <c r="O226">
-        <v>615</v>
-      </c>
-      <c r="P226">
-        <v>16.53159146808596</v>
-      </c>
-      <c r="Q226">
-        <v>7.112377624518352</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227">
@@ -14672,15 +12632,6 @@
       <c r="N227">
         <v>1.02</v>
       </c>
-      <c r="O227">
-        <v>764</v>
-      </c>
-      <c r="P227">
-        <v>12.72008324661811</v>
-      </c>
-      <c r="Q227">
-        <v>7.134179521247697</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228">
@@ -14735,15 +12686,6 @@
       <c r="N228">
         <v>0.636</v>
       </c>
-      <c r="O228">
-        <v>857</v>
-      </c>
-      <c r="P228">
-        <v>20.70773580118641</v>
-      </c>
-      <c r="Q228">
-        <v>7.608490395869486</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229">
@@ -14798,15 +12740,6 @@
       <c r="N229">
         <v>0.844</v>
       </c>
-      <c r="O229">
-        <v>3200</v>
-      </c>
-      <c r="P229">
-        <v>6.532498670534451</v>
-      </c>
-      <c r="Q229">
-        <v>6.75800297876362</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230">
@@ -14860,15 +12793,6 @@
       </c>
       <c r="N230">
         <v>0.767</v>
-      </c>
-      <c r="O230">
-        <v>1477</v>
-      </c>
-      <c r="P230">
-        <v>8.060445152681858</v>
-      </c>
-      <c r="Q230">
-        <v>6.525461658220028</v>
       </c>
     </row>
   </sheetData>
